--- a/BeerTaxonomy.xlsx
+++ b/BeerTaxonomy.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="BeerTaxonomy" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="109">
   <si>
     <t>Biere1</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Scotch Ale</t>
   </si>
   <si>
-    <t>Barley win</t>
-  </si>
-  <si>
     <t>English Strong Ale</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>Stout/Porter</t>
   </si>
   <si>
-    <t>Imperial</t>
-  </si>
-  <si>
     <t>Imperial IPA</t>
   </si>
   <si>
@@ -344,6 +338,9 @@
   </si>
   <si>
     <t>Light Ale</t>
+  </si>
+  <si>
+    <t>Barley wine</t>
   </si>
 </sst>
 </file>
@@ -685,16 +682,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,7 +729,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -743,7 +740,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -754,7 +751,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -768,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -776,7 +773,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -787,10 +784,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -798,10 +795,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -809,10 +806,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -820,7 +817,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -831,10 +828,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -842,10 +839,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -853,10 +850,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -864,10 +861,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -875,10 +872,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -886,10 +883,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -897,10 +894,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -908,10 +905,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -919,10 +916,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -930,10 +927,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -941,10 +938,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -952,10 +949,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -963,10 +960,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -974,10 +971,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -985,10 +982,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -996,10 +993,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1007,10 +1004,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1018,10 +1015,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1029,10 +1026,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1040,10 +1037,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1051,7 +1048,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>46</v>
@@ -1062,10 +1059,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1073,10 +1070,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1084,10 +1081,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1095,10 +1092,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1106,10 +1103,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1117,10 +1114,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1128,10 +1125,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1139,10 +1136,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1150,10 +1147,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1161,10 +1158,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1172,10 +1169,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1186,7 +1183,7 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1194,10 +1191,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1205,10 +1202,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1216,10 +1213,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1227,10 +1224,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1238,10 +1235,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1249,10 +1246,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1260,10 +1257,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1271,10 +1268,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1282,10 +1279,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1296,7 +1293,7 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1307,7 +1304,7 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1315,10 +1312,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1326,10 +1323,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1337,10 +1334,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1348,10 +1345,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1359,10 +1356,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1370,10 +1367,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1381,10 +1378,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1392,10 +1389,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1403,10 +1400,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1414,10 +1411,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1425,10 +1422,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1436,10 +1433,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1447,10 +1444,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1458,10 +1455,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1469,10 +1466,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1480,10 +1477,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1491,10 +1488,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1502,10 +1499,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1513,10 +1510,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1524,10 +1521,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1535,10 +1532,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1546,10 +1543,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1557,10 +1554,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1568,10 +1565,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1579,10 +1576,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1590,10 +1587,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1601,10 +1598,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -1612,10 +1609,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1623,10 +1620,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1634,10 +1631,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1645,10 +1642,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -1656,10 +1653,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1667,10 +1664,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -1678,10 +1675,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1689,10 +1686,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1700,10 +1697,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1711,10 +1708,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -1722,10 +1719,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -1736,7 +1733,7 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -1744,10 +1741,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1755,10 +1752,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -1766,10 +1763,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -1777,10 +1774,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -1788,10 +1785,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -1799,10 +1796,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -1810,10 +1807,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1821,10 +1818,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1832,10 +1829,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1843,10 +1840,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -1854,10 +1851,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -1865,10 +1862,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -1876,10 +1873,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -1887,10 +1884,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -1898,10 +1895,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -1909,10 +1906,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -1920,10 +1917,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B112" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -1931,23 +1928,12 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>41</v>
-      </c>
-      <c r="B114" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114">
         <v>1</v>
       </c>
     </row>
